--- a/output.xlsx
+++ b/output.xlsx
@@ -14,42 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Старт:ВЧ-3</t>
+    <t>Старт:4</t>
   </si>
   <si>
-    <t>Длина:1669</t>
+    <t>Длина:19080</t>
   </si>
   <si>
-    <t>МВП-2</t>
+    <t>4001</t>
   </si>
   <si>
-    <t>Отгруженное количество Cи: [5, 6.0, 6, 0, 0, 0, 0, 4, 3]</t>
-  </si>
-  <si>
-    <t>МВП-3</t>
-  </si>
-  <si>
-    <t>Отгруженное количество Cи: [0, 0, 0, 4.0, 0, 8.0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>МВП-4</t>
-  </si>
-  <si>
-    <t>Отгруженное количество Cи: [0, 5.0, 0, 0, 0, 8.0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>МВП-7</t>
-  </si>
-  <si>
-    <t>Отгруженное количество Cи: [0, 0.0, 0, 0, 0, 2.0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>ВЧ-2</t>
-  </si>
-  <si>
-    <t>Отгруженное количество Cи: [0, 0.0, 0, 5.0, 0, 0.0, 0, 0, 0]</t>
+    <t>Отгруженное количество Cи: [8, 8, 8, 8, 8, 8, 8, 14, 14, 14, 14, 14, 14, 28, 14, 14, 0, 14, 14, 14, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
 </sst>
 </file>
@@ -381,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,38 +379,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Старт:4</t>
   </si>
   <si>
-    <t>Длина:19080</t>
-  </si>
-  <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>Отгруженное количество Cи: [8, 8, 8, 8, 8, 8, 8, 14, 14, 14, 14, 14, 14, 28, 14, 14, 0, 14, 14, 14, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+    <t>Длина:23246</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>Отгруженное количество Cи: [8, 8, 8, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 10, 0, 10, 10, 10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>4003</t>
+  </si>
+  <si>
+    <t>Отгруженное количество Cи: [0, 0, 0, 0, 0, 0, 0, 4, 4, 4, 4, 4, 4, 10, 4, 4, 0, 4, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>4011</t>
+  </si>
+  <si>
+    <t>Отгруженное количество Cи: [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
 </sst>
 </file>
@@ -357,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,6 +391,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
